--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/DefectiveItemsReportForOneWarehouse.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/DefectiveItemsReportForOneWarehouse.xlsx
@@ -8,21 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\RiderProjects\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A650A-888F-4CC2-90BE-A201F5266918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDB975-DB2C-4AC3-AB1E-F7005B271B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="DefectNames">Лист1!$C$11</definedName>
+    <definedName name="DefectOldNames">Лист1!$C$19</definedName>
     <definedName name="DynamicColumnsByNomenclatureRow">Лист1!$C$8:$C$9</definedName>
     <definedName name="DynamicColumnsByNomenclatureWithTypeDefectRow">Лист1!$C$12:$C$13</definedName>
+    <definedName name="DynamicColumnsByOldNomenclatureRow">Лист1!$C$16:$C$17</definedName>
+    <definedName name="DynamicColumnsByOldNomenclatureWithTypeDefectRow">Лист1!$C$20:$C$21</definedName>
     <definedName name="Rows">Лист1!$A$3:$J$4</definedName>
     <definedName name="SourceNames">Лист1!$C$7</definedName>
+    <definedName name="SourceOldNames">Лист1!$C$15</definedName>
     <definedName name="SummaryByNomenclatureRows">Лист1!$A$8:$C$9</definedName>
     <definedName name="SummaryByNomenclatureWithTypeDefectRows">Лист1!$A$12:$C$13</definedName>
+    <definedName name="SummaryByOldNomenclatureRows">Лист1!$A$16:$C$17</definedName>
+    <definedName name="SummaryByOldNomenclatureWithTypeDefectRows">Лист1!$A$20:$C$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Отчёт по браку с {{StartDate}} по {{EndDate}}
 от {{CreatedAt}}</t>
@@ -119,6 +125,9 @@
   </si>
   <si>
     <t>Номенклатура</t>
+  </si>
+  <si>
+    <t>Старая номенклатура</t>
   </si>
 </sst>
 </file>
@@ -314,10 +323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -474,13 +483,45 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/DefectiveItemsReportForOneWarehouse.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/DefectiveItemsReportForOneWarehouse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\RiderProjects\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDB975-DB2C-4AC3-AB1E-F7005B271B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DC334F-B3B1-4611-BD87-8ACBA44FC0B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,13 @@
     <definedName name="DynamicColumnsByNomenclatureWithTypeDefectRow">Лист1!$C$12:$C$13</definedName>
     <definedName name="DynamicColumnsByOldNomenclatureRow">Лист1!$C$16:$C$17</definedName>
     <definedName name="DynamicColumnsByOldNomenclatureWithTypeDefectRow">Лист1!$C$20:$C$21</definedName>
-    <definedName name="Rows">Лист1!$A$3:$J$4</definedName>
+    <definedName name="Rows">Лист1!$A$3:$O$4</definedName>
     <definedName name="SourceNames">Лист1!$C$7</definedName>
     <definedName name="SourceOldNames">Лист1!$C$15</definedName>
-    <definedName name="SummaryByNomenclatureRows">Лист1!$A$8:$C$9</definedName>
-    <definedName name="SummaryByNomenclatureWithTypeDefectRows">Лист1!$A$12:$C$13</definedName>
-    <definedName name="SummaryByOldNomenclatureRows">Лист1!$A$16:$C$17</definedName>
-    <definedName name="SummaryByOldNomenclatureWithTypeDefectRows">Лист1!$A$20:$C$21</definedName>
+    <definedName name="SummaryByNomenclatureRows">Лист1!$A$8:$O$9</definedName>
+    <definedName name="SummaryByNomenclatureWithTypeDefectRows">Лист1!$A$12:$O$13</definedName>
+    <definedName name="SummaryByOldNomenclatureRows">Лист1!$A$16:$O$17</definedName>
+    <definedName name="SummaryByOldNomenclatureWithTypeDefectRows">Лист1!$A$20:$O$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -326,7 +326,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/DefectiveItemsReportForOneWarehouse.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/DefectiveItemsReportForOneWarehouse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\RiderProjects\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DC334F-B3B1-4611-BD87-8ACBA44FC0B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A82D8-C084-417B-BA7B-CAE280A12D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="2040" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
-    <t>Отчёт по браку с {{StartDate}} по {{EndDate}}
-от {{CreatedAt}}</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -128,6 +124,9 @@
   </si>
   <si>
     <t>Старая номенклатура</t>
+  </si>
+  <si>
+    <t>Отчёт по браку с {{StartDateString}} по {{EndDateString}} от {{CreatedAtString}}</t>
   </si>
 </sst>
 </file>
@@ -326,7 +325,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -340,7 +339,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -354,34 +353,34 @@
     </row>
     <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -390,39 +389,39 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -439,18 +438,18 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -466,37 +465,37 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -509,18 +508,18 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
